--- a/outputs/WA_Tax_Law.xlsx
+++ b/outputs/WA_Tax_Law.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacoballen/Desktop/refund-engine/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2332A7C4-976C-314E-8D71-20FEDD9D21F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42AEB28-93DF-0248-AB41-B7B6AE0F60E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33800" yWindow="-420" windowWidth="30240" windowHeight="17800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
   <si>
     <t>File_Name</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>WAC 458-20-15502.pdf</t>
-  </si>
-  <si>
-    <t>Review</t>
   </si>
   <si>
     <t>tax_law</t>
@@ -557,7 +554,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -635,181 +632,181 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>23</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>24</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>25</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>26</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>27</v>
-      </c>
-      <c r="N2" t="s">
-        <v>28</v>
       </c>
       <c r="O2">
         <v>16</v>
       </c>
       <c r="P2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>32</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>34</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>35</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>36</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>37</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>38</v>
       </c>
-      <c r="M3" t="s">
-        <v>39</v>
-      </c>
       <c r="N3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O3">
         <v>21</v>
       </c>
       <c r="P3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
         <v>41</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>55</v>
       </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
         <v>42</v>
       </c>
-      <c r="E4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s">
         <v>43</v>
       </c>
-      <c r="I4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" t="s">
-        <v>44</v>
-      </c>
       <c r="N4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O4">
         <v>240</v>
       </c>
       <c r="P4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
         <v>46</v>
       </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>47</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
         <v>48</v>
       </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>49</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
         <v>50</v>
       </c>
-      <c r="J5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>51</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>52</v>
       </c>
-      <c r="M5" t="s">
-        <v>53</v>
-      </c>
       <c r="N5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O5">
         <v>17</v>
       </c>
       <c r="P5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
